--- a/final_mix/dataset/streamer.xlsx
+++ b/final_mix/dataset/streamer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tks35\Desktop\data_mining\work\final_mix\final_mix\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIN-XU CHEN\Desktop\data_mining\work\final_mix\final_mix\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="140">
   <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,24 +547,39 @@
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>sandyhsu</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -881,18 +896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,7 +924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,7 +941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,7 +958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -960,7 +975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -977,7 +992,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -1266,7 +1281,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -1317,7 +1332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -1368,7 +1383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>116</v>
       </c>
@@ -1385,7 +1400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>119</v>
       </c>
@@ -1402,7 +1417,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -1436,8 +1451,22 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
